--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="23">
   <si>
     <t>Segmentation + Center</t>
     <phoneticPr fontId="1"/>
@@ -105,6 +105,17 @@
     <t>checkpoints_pupil_net00.augumented.woInitialize'</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Epoch 200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Epoch 150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkpoints_fcn00.augumented</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +501,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -541,13 +555,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -565,6 +579,156 @@
         <a:xfrm>
           <a:off x="2438400" y="1905000"/>
           <a:ext cx="828675" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED38D57-B0A9-4553-BA1D-E0E728C442C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="6696075"/>
+          <a:ext cx="828675" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B8531F-B294-41FA-872A-C9B8F91E0BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1914525"/>
+          <a:ext cx="828675" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266E156C-958E-4E38-AED1-1783D30A111A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="12487275"/>
+          <a:ext cx="847725" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -887,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845C81D-AC18-429C-8E31-5822E06AF031}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -910,7 +1074,7 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>7</v>
@@ -950,7 +1114,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -966,7 +1130,7 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -976,11 +1140,13 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -994,7 +1160,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1174,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1188,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1035,58 +1201,42 @@
       <c r="I8" s="12"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="2">
-        <v>0.61411199999999999</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.96003300000000003</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>20.214980000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>36.638773999999998</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="5">
-        <v>-0.41463899999999998</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.29929299999999998</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>-4.6484639999999997</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1.6660250000000001</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1099,8 +1249,8 @@
       <c r="I11" s="13"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1113,8 +1263,8 @@
       <c r="I12" s="13"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1127,8 +1277,8 @@
       <c r="I13" s="13"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1142,39 +1292,49 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="5">
+        <v>-0.93605499999999997</v>
+      </c>
+      <c r="E15" s="21">
+        <v>-2.5061209999999998</v>
+      </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="5">
+        <v>-1.18171</v>
+      </c>
+      <c r="H15" s="5">
+        <v>16.400358000000001</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="5">
-        <v>2.1801140000000001</v>
+        <v>-0.164274</v>
       </c>
       <c r="E16" s="5">
-        <v>1.119855</v>
+        <v>0.53301200000000004</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16">
-        <v>-3.8676710000000001</v>
+        <v>-3.9302709999999998</v>
       </c>
       <c r="H16">
-        <v>6.0858670000000004</v>
+        <v>-1.433438</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>19</v>
@@ -1182,7 +1342,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1356,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1370,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1224,7 +1384,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1238,264 +1398,285 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="17"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="18" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="3"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="18"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="5"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="27"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="5"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="5"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="28"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="8"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="H29" s="8"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="5">
-        <v>4.692259</v>
-      </c>
-      <c r="E30" s="21">
-        <v>4.9709580000000004</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="5">
-        <v>28.680689000000001</v>
-      </c>
-      <c r="H30" s="21">
-        <v>52.086191999999997</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="5" t="s">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="5">
-        <v>-1.501824</v>
-      </c>
-      <c r="E31" s="21">
-        <v>0.58484000000000003</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="5">
-        <v>-6.6329380000000002</v>
-      </c>
-      <c r="H31" s="21">
-        <v>7.2876729999999998</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="5" t="s">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="23"/>
+      <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="5"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="29"/>
-      <c r="B33" s="5" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="23"/>
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="5"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="29"/>
-      <c r="B34" s="5" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="5"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="30"/>
-      <c r="B35" s="8" t="s">
+      <c r="H34" s="5"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="8"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="22" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="5">
+        <v>-1.2447429999999999</v>
+      </c>
+      <c r="E36" s="21">
+        <v>-1.1119289999999999</v>
+      </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="5">
+        <v>-1.3016559999999999</v>
+      </c>
+      <c r="H36" s="5">
+        <v>17.969421000000001</v>
+      </c>
       <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="22"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="5">
-        <v>0.67534300000000003</v>
-      </c>
-      <c r="E37" s="21">
-        <v>0.18202699999999999</v>
+        <v>-0.217527</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-0.1474</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <v>-8.0327929999999999</v>
-      </c>
-      <c r="H37" s="5">
-        <v>8.4514379999999996</v>
+      <c r="G37">
+        <v>-4.6552610000000003</v>
+      </c>
+      <c r="H37">
+        <v>-1.9602649999999999</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="22"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1506,9 +1687,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="22"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="23"/>
       <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1519,9 +1701,10 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="22"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="23"/>
       <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
@@ -1532,9 +1715,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="23"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="24"/>
       <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
@@ -1545,20 +1729,670 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="17"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="20"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="26"/>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="5">
+        <v>1.9098E-2</v>
+      </c>
+      <c r="E45" s="21">
+        <v>-5.2708999999999999E-2</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <v>27.196380999999999</v>
+      </c>
+      <c r="H45" s="5">
+        <v>15.750921999999999</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="26"/>
+      <c r="B46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="26"/>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="26"/>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="26"/>
+      <c r="B49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="23"/>
+      <c r="B51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="23"/>
+      <c r="B52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="23"/>
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="23"/>
+      <c r="B54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="23"/>
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="5">
+        <v>-0.98272000000000004</v>
+      </c>
+      <c r="E56" s="21">
+        <v>-0.84345999999999999</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5">
+        <v>3.6670660000000002</v>
+      </c>
+      <c r="H56" s="5">
+        <v>24.651544999999999</v>
+      </c>
+      <c r="I56" s="13"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="23"/>
+      <c r="B57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="5">
+        <v>-0.217527</v>
+      </c>
+      <c r="E57" s="5">
+        <v>-0.1474</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57">
+        <v>-7.9573099999999997</v>
+      </c>
+      <c r="H57">
+        <v>-1.752535</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="23"/>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="23"/>
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="23"/>
+      <c r="B60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="24"/>
+      <c r="B61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="28"/>
+      <c r="B66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66">
+        <v>-5.313E-3</v>
+      </c>
+      <c r="E66">
+        <v>-0.27750799999999998</v>
+      </c>
+      <c r="G66">
+        <v>23.497805</v>
+      </c>
+      <c r="H66">
+        <v>13.524773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="28"/>
+      <c r="B67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="28"/>
+      <c r="B68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="28"/>
+      <c r="B69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="29"/>
+      <c r="B70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="30"/>
+      <c r="B72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="30"/>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="30"/>
+      <c r="B74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="30"/>
+      <c r="B75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="31"/>
+      <c r="B76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="5">
+        <v>0.160749</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0.51114700000000002</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5">
+        <v>10.447032999999999</v>
+      </c>
+      <c r="H77" s="5">
+        <v>36.396707999999997</v>
+      </c>
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="23"/>
+      <c r="B78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="5">
+        <v>8.7767999999999999E-2</v>
+      </c>
+      <c r="E78" s="21">
+        <v>1.4490810000000001</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5">
+        <v>-9.0790500000000005</v>
+      </c>
+      <c r="H78" s="5">
+        <v>7.1288660000000004</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="23"/>
+      <c r="B79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="23"/>
+      <c r="B80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="23"/>
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="24"/>
+      <c r="B82" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A35"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A35"/>
     <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A56:A61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -505,16 +505,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845C81D-AC18-429C-8E31-5822E06AF031}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1114,7 +1114,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1130,13 +1130,19 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="18">
+        <v>0.95116000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-3.7027999999999998E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>6.4975000000000005E-2</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1146,7 +1152,7 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1166,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1180,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1194,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="26"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1208,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1220,7 +1226,7 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1242,7 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1256,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1270,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1278,7 +1284,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1298,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1318,7 +1324,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1348,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1356,7 +1362,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1376,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1390,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1458,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1468,13 +1474,19 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="18">
+        <v>0.95091099999999995</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-9.8197999999999994E-2</v>
+      </c>
+      <c r="E25" s="21">
+        <v>-0.13662099999999999</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1482,7 +1494,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="26"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1508,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="26"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1522,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="26"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1536,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="26"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1550,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1556,7 +1568,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1584,7 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1598,7 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1612,7 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1626,7 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1640,7 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1652,7 +1664,7 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1688,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1716,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1730,7 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1786,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1790,16 +1802,18 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="18">
+        <v>0.94618000000000002</v>
+      </c>
       <c r="D45" s="5">
         <v>1.9098E-2</v>
       </c>
       <c r="E45" s="21">
-        <v>-5.2708999999999999E-2</v>
+        <v>0.12975800000000001</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5">
@@ -1812,7 +1826,7 @@
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="26"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +1840,7 @@
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="26"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="4" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1854,7 @@
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="26"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1868,7 @@
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +1882,7 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1886,7 +1900,7 @@
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
@@ -1902,7 +1916,7 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
@@ -1916,7 +1930,7 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
@@ -1930,7 +1944,7 @@
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1958,7 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="10" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +1972,7 @@
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1982,7 +1996,7 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="5" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2020,7 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2034,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="5" t="s">
         <v>4</v>
       </c>
@@ -2034,7 +2048,7 @@
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="5" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2062,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="24"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="8" t="s">
         <v>6</v>
       </c>
@@ -2277,7 +2291,7 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2300,7 +2314,7 @@
       <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="5" t="s">
         <v>2</v>
       </c>
@@ -2323,7 +2337,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2350,7 @@
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="23"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="5" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +2363,7 @@
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="23"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="5" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2376,7 @@
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="24"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="8" t="s">
         <v>6</v>
       </c>
@@ -2381,18 +2395,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A56:A61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
   <si>
     <t>Segmentation + Center</t>
     <phoneticPr fontId="1"/>
@@ -114,7 +114,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>checkpoints_fcn00.augumented</t>
+    <t>NNLAB: Estimated 36/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: Estimated 39 / 48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: estimated 39/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: Estimated 41/48</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -435,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,18 +518,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -531,6 +544,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845C81D-AC18-429C-8E31-5822E06AF031}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1063,7 +1079,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
@@ -1114,7 +1130,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1130,7 +1146,7 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1143,16 +1159,22 @@
       <c r="E4" s="21">
         <v>6.4975000000000005E-2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="5">
+        <v>0.56208599999999997</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.3933610000000001</v>
+      </c>
+      <c r="H4" s="32">
+        <v>-0.56828199999999995</v>
+      </c>
       <c r="I4" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1188,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1202,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1216,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1230,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1226,7 +1248,7 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1264,7 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1278,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="25"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1292,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1306,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1320,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1324,7 +1346,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="25"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1370,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1384,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1398,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="25"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1390,7 +1412,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1480,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1474,7 +1496,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -1487,14 +1509,22 @@
       <c r="E25" s="21">
         <v>-0.13662099999999999</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="13"/>
+      <c r="F25" s="5">
+        <v>0.54704799999999998</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.2653979999999998</v>
+      </c>
+      <c r="H25" s="5">
+        <v>-0.62666500000000003</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="24"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +1538,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="24"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1552,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1566,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1580,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1568,7 +1598,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1614,7 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="25"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="4" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1628,7 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1642,7 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="25"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1656,7 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1670,7 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1664,7 +1694,7 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="25"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
@@ -1688,7 +1718,7 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="25"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1732,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="5" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1746,7 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="25"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="5" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1760,7 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="26"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1816,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1802,7 +1832,7 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="24"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
@@ -1815,18 +1845,22 @@
       <c r="E45" s="21">
         <v>0.12975800000000001</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5">
+        <v>0.481323</v>
+      </c>
       <c r="G45" s="5">
-        <v>27.196380999999999</v>
+        <v>2.0770569999999999</v>
       </c>
       <c r="H45" s="5">
-        <v>15.750921999999999</v>
-      </c>
-      <c r="I45" s="13"/>
+        <v>-0.62484499999999998</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="24"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
@@ -1840,7 +1874,7 @@
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="24"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="4" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1888,7 @@
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="24"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="4" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1902,7 @@
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="24"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1916,7 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1900,7 +1934,7 @@
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="25"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +1950,7 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="25"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="4" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +1964,7 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="25"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
@@ -1944,7 +1978,7 @@
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="25"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="4" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1992,7 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="25"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="10" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +2006,7 @@
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -1996,7 +2030,7 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="5" t="s">
         <v>2</v>
       </c>
@@ -2009,10 +2043,10 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57">
-        <v>-7.9573099999999997</v>
+        <v>2.754143</v>
       </c>
       <c r="H57">
-        <v>-1.752535</v>
+        <v>-0.65172699999999995</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>19</v>
@@ -2020,7 +2054,7 @@
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="25"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +2068,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="25"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="5" t="s">
         <v>4</v>
       </c>
@@ -2048,7 +2082,7 @@
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="25"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="5" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2096,7 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="26"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="8" t="s">
         <v>6</v>
       </c>
@@ -2147,11 +2181,17 @@
       <c r="E66">
         <v>-0.27750799999999998</v>
       </c>
+      <c r="F66">
+        <v>0.481323</v>
+      </c>
       <c r="G66">
-        <v>23.497805</v>
+        <v>2.754143</v>
       </c>
       <c r="H66">
-        <v>13.524773</v>
+        <v>-0.65172699999999995</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -2291,7 +2331,7 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2314,7 +2354,7 @@
       <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="25"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="5" t="s">
         <v>2</v>
       </c>
@@ -2337,7 +2377,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="25"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2390,7 @@
       <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="25"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="5" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2403,7 @@
       <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="25"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="5" t="s">
         <v>5</v>
       </c>
@@ -2376,7 +2416,7 @@
       <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="26"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="8" t="s">
         <v>6</v>
       </c>
@@ -2395,18 +2435,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="A77:A82"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A50:A55"/>
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="33">
   <si>
     <t>Segmentation + Center</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +127,34 @@
   </si>
   <si>
     <t>NNLAB: Estimated 41/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcn00 + aug2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcn00 + aug2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: Estimated 42/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: Estimated 44/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: Estimated 45/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NNLAB: Estimated 44/48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fcn00 + aug2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -442,13 +470,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,12 +561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -536,17 +579,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,13 +617,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -621,13 +667,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -672,13 +718,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -721,13 +767,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1743075</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1067,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845C81D-AC18-429C-8E31-5822E06AF031}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1130,19 +1176,19 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -1165,7 +1211,7 @@
       <c r="G4" s="5">
         <v>2.3933610000000001</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="23">
         <v>-0.56828199999999995</v>
       </c>
       <c r="I4" s="13" t="s">
@@ -1176,21 +1222,35 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.957507</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-5.8744999999999999E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <v>-0.13397700000000001</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.61812500000000004</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3.0150229999999998</v>
+      </c>
+      <c r="H5" s="23">
+        <v>-0.35981600000000002</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="5"/>
@@ -1201,56 +1261,58 @@
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="13"/>
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="32"/>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="26"/>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="12"/>
+    <row r="8" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="14" t="s">
-        <v>15</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="5"/>
@@ -1258,15 +1320,13 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="5"/>
@@ -1278,9 +1338,9 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="5"/>
@@ -1291,86 +1351,94 @@
       <c r="I12" s="13"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="13"/>
+    <row r="13" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24"/>
+      <c r="B13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="12"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="5">
+        <v>-0.93605499999999997</v>
+      </c>
+      <c r="E14" s="21">
+        <v>-2.5061209999999998</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>-1.18171</v>
+      </c>
+      <c r="H14" s="5">
+        <v>16.400358000000001</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="24"/>
       <c r="B15" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="5">
-        <v>-0.93605499999999997</v>
-      </c>
-      <c r="E15" s="21">
-        <v>-2.5061209999999998</v>
+        <v>-0.164274</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.53301200000000004</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>-1.18171</v>
-      </c>
-      <c r="H15" s="5">
-        <v>16.400358000000001</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>15</v>
+      <c r="G15">
+        <v>-3.9302709999999998</v>
+      </c>
+      <c r="H15">
+        <v>-1.433438</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
+      <c r="A16" s="24"/>
+      <c r="B16" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="5">
-        <v>-0.164274</v>
+        <v>0.16475100000000001</v>
       </c>
       <c r="E16" s="5">
-        <v>0.53301200000000004</v>
+        <v>-0.49999900000000003</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16">
-        <v>-3.9302709999999998</v>
+        <v>-3.5322979999999999</v>
       </c>
       <c r="H16">
-        <v>-1.433438</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>19</v>
-      </c>
+        <v>-1.991417</v>
+      </c>
+      <c r="I16" s="15"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1452,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1397,11 +1465,9 @@
       <c r="I18" s="13"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="19" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="18"/>
       <c r="D19" s="5"/>
       <c r="E19" s="21"/>
@@ -1411,136 +1477,156 @@
       <c r="I19" s="13"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="12"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="22"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="13"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="12"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="26"/>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.95091099999999995</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-9.8197999999999994E-2</v>
+      </c>
+      <c r="E23" s="21">
+        <v>-0.13662099999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.54704799999999998</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.2653979999999998</v>
+      </c>
+      <c r="H23" s="5">
+        <v>-0.62666500000000003</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
-        <v>0</v>
-      </c>
+      <c r="A24" s="26"/>
       <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.95217499999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-9.6734000000000001E-2</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.114736</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.63769699999999996</v>
+      </c>
+      <c r="G24" s="23">
+        <v>2.9675850000000001</v>
+      </c>
+      <c r="H24" s="23">
+        <v>-0.19866800000000001</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="26"/>
       <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="24"/>
+      <c r="B27" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0.95091099999999995</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-9.8197999999999994E-2</v>
-      </c>
-      <c r="E25" s="21">
-        <v>-0.13662099999999999</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.54704799999999998</v>
-      </c>
-      <c r="G25" s="5">
-        <v>2.2653979999999998</v>
-      </c>
-      <c r="H25" s="5">
-        <v>-0.62666500000000003</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="5"/>
@@ -1548,13 +1634,15 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="26"/>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="5"/>
@@ -1565,176 +1653,194 @@
       <c r="I28" s="13"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="26"/>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="24"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="24"/>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="24"/>
+      <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="5">
+        <v>-1.2447429999999999</v>
+      </c>
+      <c r="E32" s="21">
+        <v>-1.1119289999999999</v>
+      </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="5">
+        <v>-1.3016559999999999</v>
+      </c>
+      <c r="H32" s="5">
+        <v>17.969421000000001</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="4" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="24"/>
+      <c r="B33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="5">
+        <v>-0.217527</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-0.1474</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33">
+        <v>-4.6552610000000003</v>
+      </c>
+      <c r="H33">
+        <v>-1.9602649999999999</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="24"/>
+      <c r="B34" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="5">
+        <v>-0.40091199999999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-0.45523200000000003</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34">
+        <v>-5.0301600000000004</v>
+      </c>
+      <c r="H34">
+        <v>-1.7784279999999999</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="24"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="24"/>
+      <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23"/>
-      <c r="B35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="5">
-        <v>-1.2447429999999999</v>
-      </c>
-      <c r="E36" s="21">
-        <v>-1.1119289999999999</v>
-      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5">
-        <v>-1.3016559999999999</v>
-      </c>
-      <c r="H36" s="5">
-        <v>17.969421000000001</v>
-      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="13"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="5">
-        <v>-0.217527</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-0.1474</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37">
-        <v>-4.6552610000000003</v>
-      </c>
-      <c r="H37">
-        <v>-1.9602649999999999</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="13"/>
+    <row r="38" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="12"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="23"/>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
+      <c r="A39" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="5"/>
@@ -1746,81 +1852,97 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="13"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0.94618000000000002</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.9098E-2</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0.12975800000000001</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.481323</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2.0770569999999999</v>
+      </c>
+      <c r="H40" s="5">
+        <v>-0.62484499999999998</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
-      <c r="B41" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="12"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="26"/>
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.95369599999999999</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-7.3220000000000004E-3</v>
+      </c>
+      <c r="E41" s="21">
+        <v>-6.9970000000000004E-2</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="G41" s="23">
+        <v>3.1161059999999998</v>
+      </c>
+      <c r="H41" s="23">
+        <v>-0.37043700000000002</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="12"/>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="25" t="s">
-        <v>0</v>
-      </c>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="24"/>
       <c r="B44" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="5"/>
@@ -1828,41 +1950,29 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="24"/>
       <c r="B45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="18">
-        <v>0.94618000000000002</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1.9098E-2</v>
-      </c>
-      <c r="E45" s="21">
-        <v>0.12975800000000001</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0.481323</v>
-      </c>
-      <c r="G45" s="5">
-        <v>2.0770569999999999</v>
-      </c>
-      <c r="H45" s="5">
-        <v>-0.62484499999999998</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>23</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="26"/>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="24"/>
       <c r="B46" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="5"/>
@@ -1873,10 +1983,10 @@
       <c r="I46" s="13"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="26"/>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="24"/>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="5"/>
@@ -1887,71 +1997,93 @@
       <c r="I47" s="13"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="26"/>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="13"/>
+    <row r="48" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="24"/>
+      <c r="B48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26"/>
-      <c r="B49" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="12"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="5">
+        <v>-0.98272000000000004</v>
+      </c>
+      <c r="E49" s="21">
+        <v>-0.84345999999999999</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
+        <v>3.6670660000000002</v>
+      </c>
+      <c r="H49" s="5">
+        <v>24.651544999999999</v>
+      </c>
+      <c r="I49" s="13"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="14" t="s">
-        <v>15</v>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="24"/>
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="5">
+        <v>-0.217527</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-0.1474</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50">
+        <v>2.754143</v>
+      </c>
+      <c r="H50">
+        <v>-0.65172699999999995</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="23"/>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="24"/>
+      <c r="B51" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="C51" s="18"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="5">
+        <v>0.20174</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-3.4387000000000001E-2</v>
+      </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="G51">
+        <v>-4.3948289999999997</v>
+      </c>
+      <c r="H51">
+        <v>-2.3941940000000002</v>
+      </c>
+      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="23"/>
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="24"/>
+      <c r="B52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="18"/>
@@ -1963,9 +2095,9 @@
       <c r="I52" s="13"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="23"/>
-      <c r="B53" s="4" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="24"/>
+      <c r="B53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="18"/>
@@ -1977,476 +2109,327 @@
       <c r="I53" s="13"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="23"/>
-      <c r="B54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="23"/>
-      <c r="B55" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    <row r="54" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="5">
-        <v>-0.98272000000000004</v>
-      </c>
-      <c r="E56" s="21">
-        <v>-0.84345999999999999</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5">
-        <v>3.6670660000000002</v>
-      </c>
-      <c r="H56" s="5">
-        <v>24.651544999999999</v>
-      </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="16"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="28"/>
+      <c r="B58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="5">
-        <v>-0.217527</v>
-      </c>
-      <c r="E57" s="5">
-        <v>-0.1474</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57">
+      <c r="C58" s="18"/>
+      <c r="D58">
+        <v>-5.313E-3</v>
+      </c>
+      <c r="E58">
+        <v>-0.27750799999999998</v>
+      </c>
+      <c r="F58">
+        <v>0.481323</v>
+      </c>
+      <c r="G58">
         <v>2.754143</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>-0.65172699999999995</v>
       </c>
-      <c r="I57" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="23"/>
-      <c r="B58" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="5"/>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0.93349599999999999</v>
+      </c>
+      <c r="D59" s="5">
+        <v>9.1966000000000006E-2</v>
+      </c>
+      <c r="E59" s="21">
+        <v>-5.5968999999999998E-2</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0.59796800000000006</v>
+      </c>
+      <c r="G59" s="5">
+        <v>2.9246150000000002</v>
+      </c>
+      <c r="H59" s="21">
+        <v>-0.22353200000000001</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="28"/>
+      <c r="B60" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="23"/>
-      <c r="B60" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="5"/>
       <c r="E60" s="21"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="24"/>
-      <c r="B61" s="8" t="s">
+      <c r="H60" s="21"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="29"/>
+      <c r="B62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="29"/>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="29"/>
+      <c r="B64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="29"/>
+      <c r="B65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="30"/>
+      <c r="B66" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="17"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="28"/>
-      <c r="B66" s="5" t="s">
+      <c r="C67" s="18"/>
+      <c r="D67" s="5">
+        <v>0.160749</v>
+      </c>
+      <c r="E67" s="21">
+        <v>0.51114700000000002</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
+        <v>10.447032999999999</v>
+      </c>
+      <c r="H67" s="5">
+        <v>36.396707999999997</v>
+      </c>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="24"/>
+      <c r="B68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66">
-        <v>-5.313E-3</v>
-      </c>
-      <c r="E66">
-        <v>-0.27750799999999998</v>
-      </c>
-      <c r="F66">
-        <v>0.481323</v>
-      </c>
-      <c r="G66">
-        <v>2.754143</v>
-      </c>
-      <c r="H66">
-        <v>-0.65172699999999995</v>
-      </c>
-      <c r="I66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="28"/>
-      <c r="B67" s="5" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="5">
+        <v>8.7767999999999999E-2</v>
+      </c>
+      <c r="E68" s="21">
+        <v>1.4490810000000001</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5">
+        <v>-9.0790500000000005</v>
+      </c>
+      <c r="H68" s="5">
+        <v>7.1288660000000004</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="24"/>
+      <c r="B69" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="5">
+        <v>-1.0657110000000001</v>
+      </c>
+      <c r="E69" s="21">
+        <v>-0.17300599999999999</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5">
+        <v>-6.117947</v>
+      </c>
+      <c r="H69" s="5">
+        <v>-4.3200599999999998</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="24"/>
+      <c r="B70" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="28"/>
-      <c r="B68" s="5" t="s">
+      <c r="C70" s="18"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="24"/>
+      <c r="B71" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="29"/>
-      <c r="B70" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="5"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="18"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="30"/>
-      <c r="B72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="30"/>
-      <c r="B73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="30"/>
-      <c r="B74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="30"/>
-      <c r="B75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="31"/>
-      <c r="B76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="5">
-        <v>0.160749</v>
-      </c>
-      <c r="E77" s="21">
-        <v>0.51114700000000002</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5">
-        <v>10.447032999999999</v>
-      </c>
-      <c r="H77" s="5">
-        <v>36.396707999999997</v>
-      </c>
-      <c r="I77" s="13"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="5">
-        <v>8.7767999999999999E-2</v>
-      </c>
-      <c r="E78" s="21">
-        <v>1.4490810000000001</v>
-      </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5">
-        <v>-9.0790500000000005</v>
-      </c>
-      <c r="H78" s="5">
-        <v>7.1288660000000004</v>
-      </c>
-      <c r="I78" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="23"/>
-      <c r="B81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="13"/>
-    </row>
-    <row r="82" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="24"/>
-      <c r="B82" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="12"/>
-    </row>
-    <row r="83" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C83" s="17"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="20"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C72" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A49:A53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
